--- a/data/10. October-25_Energy.xlsx
+++ b/data/10. October-25_Energy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzh0237\Box\Mehedi Project\Mehedi GRACE\Data\Analysis\Python file\Input file\Oct-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzr0069\insy6500\group_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0FBD96-0617-449B-A357-22BBAB57C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A34BD1-964C-436B-9FAC-E14C8FE7BB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="11" r:id="rId1"/>
@@ -385,7 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D23B9-351F-424B-9CDB-6F7518E81344}">
   <dimension ref="A1:C1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A738" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E752" sqref="E752"/>
     </sheetView>
   </sheetViews>
